--- a/project_1/3. 요구사항 명세서, 분석서/2조_유정민 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_유정민 요구사항 명세서_v0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="184">
   <si>
     <t>RQ-ID-001-01</t>
   </si>
@@ -1053,6 +1053,22 @@
   </si>
   <si>
     <t>건강·정책(질병 정보, 정책 정보 확인), 삶의 질 분석(기대 수명 예측, 당신의 만족도는?), 커뮤니티, 로그인으로 구분되어 있으며 각 구분된 영역 클릭시 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대 수명 예측(지역별)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1677,8 +1693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1935,7 @@
         <v>84</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>85</v>
@@ -1934,7 +1950,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>88</v>
@@ -1948,7 +1964,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>91</v>
@@ -1962,7 +1978,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>94</v>

--- a/project_1/3. 요구사항 명세서, 분석서/2조_유정민 요구사항 명세서_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/2조_유정민 요구사항 명세서_v0.1.xlsx
@@ -270,10 +270,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>사용자의 성별을 체크팍스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-200-03</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1069,6 +1065,10 @@
   </si>
   <si>
     <t>기대 수명 예측(지역별)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 성별을 체크박스를 이용하여 입력할 수 있도록 하고 버튼을 눌러 데이터를 제공</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1693,8 +1693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,190 +1843,190 @@
         <v>64</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2037,58 +2037,58 @@
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,114 +2099,114 @@
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,10 +2217,10 @@
     </row>
     <row r="41" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>17</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="42" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>19</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>21</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>23</v>
@@ -2273,24 +2273,24 @@
     </row>
     <row r="45" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>26</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>28</v>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="50" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>31</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="51" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>31</v>
@@ -2358,12 +2358,12 @@
         <v>34</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>31</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>31</v>
@@ -2386,12 +2386,12 @@
         <v>30</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>31</v>
@@ -2406,7 +2406,7 @@
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>39</v>
@@ -2415,12 +2415,12 @@
         <v>40</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>39</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>39</v>
@@ -2443,41 +2443,41 @@
         <v>43</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>44</v>
@@ -2500,12 +2500,12 @@
         <v>34</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>44</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="65" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>44</v>
@@ -2528,12 +2528,12 @@
         <v>43</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>44</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="67" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>44</v>
